--- a/sample-tests.xlsx
+++ b/sample-tests.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\RND\iBot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SadikBashaD\Documents\iBott\iBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5471CB6-613B-4B17-9404-1D093A78D794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78402B24-2781-487A-A993-34BC47B2F8B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="basics" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="213">
   <si>
     <t>Desc</t>
   </si>
@@ -1154,25 +1154,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.21875" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="46.109375" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" customWidth="1"/>
-    <col min="5" max="5" width="32.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" customWidth="1"/>
-    <col min="7" max="14" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="15.1796875" customWidth="1"/>
+    <col min="2" max="2" width="13.36328125" customWidth="1"/>
+    <col min="3" max="3" width="46.08984375" customWidth="1"/>
+    <col min="4" max="4" width="16.90625" customWidth="1"/>
+    <col min="5" max="5" width="32.453125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.453125" customWidth="1"/>
+    <col min="7" max="14" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1189,12 +1189,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>23</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="5"/>
       <c r="C9" t="s">
         <v>26</v>
@@ -1284,7 +1284,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
       <c r="B10" t="s">
         <v>28</v>
@@ -1299,7 +1299,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>31</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>33</v>
       </c>
@@ -1321,10 +1321,10 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>36</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>39</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>42</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>45</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>46</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>48</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>49</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>50</v>
       </c>
@@ -1424,12 +1424,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>53</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5" t="s">
@@ -1453,65 +1453,112 @@
         <v>212</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="5"/>
+      <c r="C25" s="5"/>
       <c r="D25" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D34" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E34" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C26" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C35" t="s">
         <v>57</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D35" t="s">
         <v>58</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C27" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C36" t="s">
         <v>60</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D36" t="s">
         <v>58</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C28" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C37" t="s">
         <v>57</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D37" t="s">
         <v>62</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E37" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C29" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C38" t="s">
         <v>57</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D38" t="s">
         <v>63</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E38" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D30" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D39" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D37" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D46" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1529,15 +1576,15 @@
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" customWidth="1"/>
-    <col min="3" max="3" width="78.33203125" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="44.44140625" customWidth="1"/>
+    <col min="1" max="1" width="13.81640625" customWidth="1"/>
+    <col min="3" max="3" width="78.36328125" customWidth="1"/>
+    <col min="4" max="4" width="12.6328125" customWidth="1"/>
+    <col min="5" max="5" width="44.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1554,13 +1601,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>138</v>
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>101</v>
       </c>
@@ -1571,7 +1618,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
@@ -1579,7 +1626,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
         <v>140</v>
       </c>
@@ -1590,7 +1637,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
         <v>143</v>
       </c>
@@ -1598,7 +1645,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
         <v>144</v>
       </c>
@@ -1609,7 +1656,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
         <v>146</v>
       </c>
@@ -1621,7 +1668,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D10" s="5" t="s">
         <v>11</v>
       </c>
@@ -1629,7 +1676,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
         <v>149</v>
       </c>
@@ -1638,7 +1685,7 @@
       </c>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
         <v>150</v>
       </c>
@@ -1649,7 +1696,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
         <v>151</v>
       </c>
@@ -1657,12 +1704,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D14" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C15" t="s">
         <v>149</v>
       </c>
@@ -1670,7 +1717,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C16" t="s">
         <v>152</v>
       </c>
@@ -1681,7 +1728,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C17" t="s">
         <v>154</v>
       </c>
@@ -1710,14 +1757,14 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="32.77734375" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" customWidth="1"/>
+    <col min="3" max="3" width="32.81640625" customWidth="1"/>
+    <col min="4" max="4" width="7.54296875" customWidth="1"/>
+    <col min="5" max="5" width="16.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1734,13 +1781,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>84</v>
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
@@ -1752,7 +1799,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
@@ -1760,7 +1807,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
         <v>85</v>
       </c>
@@ -1771,7 +1818,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
         <v>85</v>
       </c>
@@ -1780,10 +1827,10 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
         <v>37</v>
       </c>
@@ -1797,14 +1844,14 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B9" s="5"/>
       <c r="D9" t="s">
         <v>155</v>
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
         <v>88</v>
       </c>
@@ -1815,7 +1862,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
         <v>90</v>
       </c>
@@ -1826,7 +1873,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
         <v>95</v>
       </c>
@@ -1835,10 +1882,10 @@
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B14" s="5" t="s">
         <v>96</v>
       </c>
@@ -1852,7 +1899,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C15" t="s">
         <v>98</v>
       </c>
@@ -1861,10 +1908,10 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" s="5" t="s">
         <v>99</v>
       </c>
@@ -1878,11 +1925,11 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" s="5"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19" s="5" t="s">
         <v>100</v>
       </c>
@@ -1896,7 +1943,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20" s="5"/>
       <c r="C20" t="s">
         <v>90</v>
@@ -1908,7 +1955,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21" s="5"/>
       <c r="C21" t="s">
         <v>95</v>
@@ -1918,7 +1965,7 @@
       </c>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22" s="5"/>
       <c r="C22" t="s">
         <v>17</v>
@@ -1948,15 +1995,15 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.21875" customWidth="1"/>
-    <col min="3" max="3" width="52.44140625" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" width="6.1796875" customWidth="1"/>
+    <col min="3" max="3" width="52.453125" customWidth="1"/>
+    <col min="4" max="4" width="12.6328125" customWidth="1"/>
+    <col min="5" max="5" width="19.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1973,20 +2020,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>156</v>
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="10"/>
       <c r="B3" s="5" t="s">
         <v>157</v>
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="10"/>
       <c r="C4" s="5" t="s">
         <v>158</v>
@@ -1996,7 +2043,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="10"/>
       <c r="D5" s="5" t="s">
         <v>11</v>
@@ -2005,7 +2052,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="10"/>
       <c r="C6" t="s">
         <v>159</v>
@@ -2017,7 +2064,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="10"/>
       <c r="D7" t="s">
         <v>162</v>
@@ -2026,7 +2073,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="10"/>
       <c r="D8" t="s">
         <v>34</v>
@@ -2035,13 +2082,13 @@
         <v>164</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="10"/>
       <c r="D9" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="10"/>
       <c r="D10" t="s">
         <v>162</v>
@@ -2050,7 +2097,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="10"/>
       <c r="D11" t="s">
         <v>34</v>
@@ -2059,35 +2106,35 @@
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="10"/>
       <c r="D12" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="10"/>
       <c r="D13" t="s">
         <v>34</v>
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="10"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="10"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="10"/>
       <c r="B16" s="5" t="s">
         <v>168</v>
       </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="10"/>
       <c r="C17" s="5" t="s">
         <v>158</v>
@@ -2097,7 +2144,7 @@
       </c>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="10"/>
       <c r="D18" s="5" t="s">
         <v>11</v>
@@ -2106,7 +2153,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="10"/>
       <c r="C19" t="s">
         <v>169</v>
@@ -2116,7 +2163,7 @@
       </c>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="10"/>
       <c r="C20" t="s">
         <v>159</v>
@@ -2128,7 +2175,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="10"/>
       <c r="D21" t="s">
         <v>162</v>
@@ -2137,7 +2184,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="10"/>
       <c r="D22" t="s">
         <v>34</v>
@@ -2146,13 +2193,13 @@
         <v>172</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="10"/>
       <c r="D23" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D24" t="s">
         <v>162</v>
       </c>
@@ -2160,7 +2207,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C25" t="s">
         <v>169</v>
       </c>
@@ -2168,7 +2215,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C26" t="s">
         <v>159</v>
       </c>
@@ -2179,7 +2226,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D27" t="s">
         <v>34</v>
       </c>
@@ -2187,7 +2234,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D28" t="s">
         <v>165</v>
       </c>
@@ -2195,7 +2242,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D29" t="s">
         <v>34</v>
       </c>
@@ -2203,18 +2250,18 @@
         <v>175</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B32" s="5" t="s">
         <v>176</v>
       </c>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C33" s="5" t="s">
         <v>158</v>
       </c>
@@ -2223,7 +2270,7 @@
       </c>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D34" s="5" t="s">
         <v>11</v>
       </c>
@@ -2231,7 +2278,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C35" t="s">
         <v>159</v>
       </c>
@@ -2242,7 +2289,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D36" t="s">
         <v>162</v>
       </c>
@@ -2250,7 +2297,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D37" t="s">
         <v>34</v>
       </c>
@@ -2258,12 +2305,12 @@
         <v>172</v>
       </c>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D38" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D39" t="s">
         <v>162</v>
       </c>
@@ -2271,7 +2318,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C40" t="s">
         <v>169</v>
       </c>
@@ -2279,7 +2326,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C41" t="s">
         <v>159</v>
       </c>
@@ -2290,7 +2337,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D42" t="s">
         <v>34</v>
       </c>
@@ -2298,7 +2345,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D43" t="s">
         <v>165</v>
       </c>
@@ -2306,7 +2353,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D44" t="s">
         <v>34</v>
       </c>
@@ -2314,7 +2361,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D45" t="s">
         <v>34</v>
       </c>
@@ -2337,14 +2384,14 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="33.44140625" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="33.453125" customWidth="1"/>
+    <col min="4" max="4" width="14.6328125" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2361,20 +2408,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>177</v>
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="10"/>
       <c r="B3" s="5" t="s">
         <v>157</v>
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="10"/>
       <c r="C4" s="5" t="s">
         <v>178</v>
@@ -2384,7 +2431,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="10"/>
       <c r="D5" s="5" t="s">
         <v>11</v>
@@ -2393,7 +2440,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
         <v>180</v>
       </c>
@@ -2404,7 +2451,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
         <v>183</v>
       </c>
@@ -2415,7 +2462,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
         <v>180</v>
       </c>
@@ -2426,7 +2473,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
         <v>183</v>
       </c>
@@ -2437,7 +2484,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D10" t="s">
         <v>92</v>
       </c>
@@ -2460,14 +2507,14 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="35.109375" customWidth="1"/>
+    <col min="3" max="3" width="35.08984375" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" customWidth="1"/>
+    <col min="5" max="5" width="17.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2484,12 +2531,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C3" s="5" t="s">
         <v>188</v>
       </c>
@@ -2498,7 +2545,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
@@ -2506,7 +2553,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
         <v>190</v>
       </c>
@@ -2514,7 +2561,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D6" t="s">
         <v>11</v>
       </c>
@@ -2522,7 +2569,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
         <v>193</v>
       </c>
@@ -2530,7 +2577,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D8" t="s">
         <v>11</v>
       </c>
@@ -2538,12 +2585,12 @@
         <v>194</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D9" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D10" t="s">
         <v>11</v>
       </c>
@@ -2551,12 +2598,12 @@
         <v>192</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D11" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D12" s="5" t="s">
         <v>196</v>
       </c>
@@ -2582,16 +2629,16 @@
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" customWidth="1"/>
-    <col min="2" max="2" width="14.77734375" customWidth="1"/>
-    <col min="3" max="3" width="37.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.90625" customWidth="1"/>
+    <col min="2" max="2" width="14.81640625" customWidth="1"/>
+    <col min="3" max="3" width="37.08984375" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" customWidth="1"/>
+    <col min="5" max="5" width="17.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2608,17 +2655,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C4" s="5" t="s">
         <v>188</v>
       </c>
@@ -2627,7 +2674,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D5" s="5" t="s">
         <v>11</v>
       </c>
@@ -2635,7 +2682,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
         <v>198</v>
       </c>
@@ -2646,7 +2693,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D7" t="s">
         <v>34</v>
       </c>
@@ -2654,7 +2701,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D8" t="s">
         <v>34</v>
       </c>
@@ -2662,7 +2709,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
         <v>203</v>
       </c>
@@ -2673,7 +2720,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D10" t="s">
         <v>34</v>
       </c>
@@ -2681,7 +2728,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
         <v>207</v>
       </c>
@@ -2692,12 +2739,12 @@
         <v>208</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D14" t="s">
         <v>34</v>
       </c>
@@ -2723,13 +2770,13 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="32.88671875" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="32.90625" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2746,13 +2793,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>67</v>
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
@@ -2764,7 +2811,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
@@ -2772,7 +2819,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
         <v>68</v>
       </c>
@@ -2781,10 +2828,10 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
         <v>37</v>
       </c>
@@ -2798,7 +2845,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
         <v>71</v>
       </c>
@@ -2809,7 +2856,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
         <v>73</v>
       </c>
@@ -2820,7 +2867,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
         <v>71</v>
       </c>
@@ -2831,7 +2878,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
         <v>73</v>
       </c>
@@ -2860,14 +2907,14 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="46.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" customWidth="1"/>
+    <col min="3" max="3" width="46.90625" customWidth="1"/>
+    <col min="4" max="4" width="12.6328125" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2884,13 +2931,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>76</v>
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
@@ -2902,7 +2949,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
         <v>78</v>
@@ -2911,7 +2958,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
         <v>79</v>
       </c>
@@ -2922,7 +2969,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
         <v>43</v>
       </c>
@@ -2931,7 +2978,7 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
         <v>81</v>
       </c>
@@ -2960,14 +3007,14 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="33.77734375" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" customWidth="1"/>
+    <col min="3" max="3" width="33.81640625" customWidth="1"/>
+    <col min="4" max="4" width="8.90625" customWidth="1"/>
+    <col min="5" max="5" width="20.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2984,13 +3031,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>84</v>
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
@@ -3002,7 +3049,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
@@ -3010,7 +3057,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
         <v>85</v>
       </c>
@@ -3021,7 +3068,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
         <v>85</v>
       </c>
@@ -3030,10 +3077,10 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
         <v>37</v>
       </c>
@@ -3047,7 +3094,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
         <v>88</v>
       </c>
@@ -3058,7 +3105,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
         <v>90</v>
       </c>
@@ -3069,13 +3116,13 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D11" t="s">
         <v>92</v>
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
         <v>88</v>
       </c>
@@ -3089,7 +3136,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
         <v>95</v>
       </c>
@@ -3098,10 +3145,10 @@
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B15" s="5" t="s">
         <v>96</v>
       </c>
@@ -3115,7 +3162,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C16" t="s">
         <v>98</v>
       </c>
@@ -3124,10 +3171,10 @@
       </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18" s="5" t="s">
         <v>99</v>
       </c>
@@ -3141,11 +3188,11 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19" s="5"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20" s="5" t="s">
         <v>100</v>
       </c>
@@ -3159,7 +3206,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21" s="5"/>
       <c r="C21" t="s">
         <v>90</v>
@@ -3171,7 +3218,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22" s="5"/>
       <c r="C22" t="s">
         <v>95</v>
@@ -3181,7 +3228,7 @@
       </c>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23" s="5"/>
       <c r="C23" t="s">
         <v>17</v>
@@ -3211,15 +3258,15 @@
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="11.5546875" customWidth="1"/>
-    <col min="3" max="3" width="67.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" customWidth="1"/>
-    <col min="5" max="5" width="25.44140625" style="1" customWidth="1"/>
+    <col min="1" max="2" width="11.54296875" customWidth="1"/>
+    <col min="3" max="3" width="67.36328125" customWidth="1"/>
+    <col min="4" max="4" width="14.54296875" customWidth="1"/>
+    <col min="5" max="5" width="25.453125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3236,12 +3283,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>102</v>
       </c>
@@ -3256,7 +3303,7 @@
       </c>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
@@ -3264,7 +3311,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D5" s="5" t="s">
         <v>105</v>
       </c>
@@ -3272,7 +3319,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
         <v>106</v>
@@ -3281,7 +3328,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>108</v>
       </c>
@@ -3300,13 +3347,13 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="31.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="31.6328125" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3323,12 +3370,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -3339,7 +3386,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>110</v>
       </c>
@@ -3368,22 +3415,22 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="45.109375" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" customWidth="1"/>
-    <col min="5" max="5" width="33.77734375" customWidth="1"/>
+    <col min="1" max="1" width="12.36328125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="10.36328125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="45.08984375" customWidth="1"/>
+    <col min="4" max="4" width="15.08984375" customWidth="1"/>
+    <col min="5" max="5" width="33.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>101</v>
       </c>
       <c r="B1" s="4"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
@@ -3394,7 +3441,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
         <v>114</v>
       </c>
@@ -3402,7 +3449,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>116</v>
       </c>
@@ -3410,7 +3457,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
         <v>117</v>
       </c>
@@ -3421,21 +3468,21 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D6" s="5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D7" s="5" t="s">
         <v>119</v>
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B9" s="9" t="s">
         <v>37</v>
       </c>
@@ -3446,7 +3493,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
         <v>121</v>
       </c>
@@ -3454,7 +3501,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
         <v>123</v>
       </c>
@@ -3465,7 +3512,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
         <v>123</v>
       </c>
@@ -3476,7 +3523,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
         <v>123</v>
       </c>
@@ -3487,7 +3534,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D14" s="5" t="s">
         <v>119</v>
       </c>
@@ -3510,13 +3557,13 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="34.77734375" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="34.81640625" customWidth="1"/>
+    <col min="5" max="5" width="14.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3533,13 +3580,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>126</v>
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
         <v>101</v>
       </c>
@@ -3551,7 +3598,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
@@ -3559,7 +3606,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
         <v>129</v>
       </c>
@@ -3568,13 +3615,13 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D6" t="s">
         <v>92</v>
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
         <v>130</v>
       </c>
@@ -3583,13 +3630,13 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D8" t="s">
         <v>92</v>
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
         <v>130</v>
       </c>
@@ -3598,7 +3645,7 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
         <v>130</v>
       </c>
@@ -3609,16 +3656,16 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E14" s="1"/>
     </row>
   </sheetData>
@@ -3639,13 +3686,13 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="33.6640625" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="33.6328125" customWidth="1"/>
+    <col min="5" max="5" width="13.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3662,13 +3709,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>133</v>
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
         <v>101</v>
       </c>
@@ -3680,7 +3727,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
@@ -3688,7 +3735,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
         <v>136</v>
       </c>
@@ -3697,7 +3744,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
         <v>136</v>
       </c>
@@ -3706,7 +3753,7 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
         <v>136</v>
       </c>
@@ -3717,7 +3764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
         <v>136</v>
       </c>
@@ -3726,7 +3773,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
         <v>136</v>
       </c>
@@ -3737,7 +3784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
         <v>136</v>
       </c>
@@ -3746,7 +3793,7 @@
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
         <v>136</v>
       </c>
@@ -3757,28 +3804,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E19" s="1"/>
     </row>
   </sheetData>
